--- a/biology/Botanique/Coccoloba_pubescens/Coccoloba_pubescens.xlsx
+++ b/biology/Botanique/Coccoloba_pubescens/Coccoloba_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coccoloba pubescens (l’oreille d'éléphant) est une espèce de plantes à fleurs du genre Coccoloba et de la famille des Polygonaceae qui se rencontre aux Antilles et dans les îles des Caraïbes : Antigua, Bahamas, Barbade, Barbuda, République dominicaine, Hispaniola, Martinique, Montserrat, Saint-Vincent-et-les-Grenadines, Porto Rico[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coccoloba pubescens (l’oreille d'éléphant) est une espèce de plantes à fleurs du genre Coccoloba et de la famille des Polygonaceae qui se rencontre aux Antilles et dans les îles des Caraïbes : Antigua, Bahamas, Barbade, Barbuda, République dominicaine, Hispaniola, Martinique, Montserrat, Saint-Vincent-et-les-Grenadines, Porto Rico,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut atteindre 24 m de hauteur dans son environnement naturel et 6 dm de diamètre avec une couronne ouverte formée de branches étirées. Ses feuilles d'un vert brillant sont orbiculaires, mesurant de 2,5 à  45 cm de diamètre et excédant rarement 9 dm. Elles sont plus pâles à l'envers avec des veines jaunâtres. Ses fleurs sont d'un blanc verdâtre disposées sur des épis verdâtres érigés de 6 dm de largeur. Ses fruits mesurent 2 cm de diamètre.
 </t>
@@ -542,16 +556,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette plante a été décrite par Carl von Linné en 1759 dans Systema Naturae, Editio Decima 1007. 1759[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette plante a été décrite par Carl von Linné en 1759 dans Systema Naturae, Editio Decima 1007. 1759.
 Synonymes
 Coccoloba antiguensis Sandwith
 Coccoloba bonfilsiana Stehlé &amp; M.Stehlé
 Coccoloba grandifolia Jacq.
 Coccoloba rubescens L.
 Coccolobis antiguensis Sandwith
-Coccolobis pubescens (L.) Crantz[4]</t>
+Coccolobis pubescens (L.) Crantz</t>
         </is>
       </c>
     </row>
